--- a/cesem/core/management/commands/files/bd_pastos_test.xlsx
+++ b/cesem/core/management/commands/files/bd_pastos_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26610"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier Gutierrez\Desktop\pepevi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier Gutierrez\projects\cesem\cesem\core\management\commands\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{404DB7D3-9E82-497F-8776-96E10AB260D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08CA249-FF3B-43CD-B8BB-5AB1985CD27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0AC1C7BF-6444-4EE8-AE55-9C9E9C8696E2}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -717,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +753,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -866,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,6 +986,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,32 +1020,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ME"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ME"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1353,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDCB159-3992-4A2E-A45D-E8E27DE8833B}">
   <dimension ref="A1:CI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="BX4" sqref="BX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,7 +1808,9 @@
       <c r="BV2" s="39"/>
       <c r="BW2" s="39"/>
       <c r="BX2" s="39"/>
-      <c r="BY2" s="39"/>
+      <c r="BY2" s="39">
+        <v>20</v>
+      </c>
       <c r="BZ2" s="39"/>
       <c r="CA2" s="39"/>
       <c r="CB2" s="39"/>
@@ -1836,7 +1820,9 @@
       <c r="CF2" s="39"/>
       <c r="CG2" s="39"/>
       <c r="CH2" s="39"/>
-      <c r="CI2" s="39"/>
+      <c r="CI2" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
@@ -1954,10 +1940,14 @@
       <c r="BU3" s="39"/>
       <c r="BV3" s="39"/>
       <c r="BW3" s="39"/>
-      <c r="BX3" s="39"/>
+      <c r="BX3" s="39">
+        <v>10</v>
+      </c>
       <c r="BY3" s="39"/>
       <c r="BZ3" s="39"/>
-      <c r="CA3" s="39"/>
+      <c r="CA3" s="39">
+        <v>56.4</v>
+      </c>
       <c r="CB3" s="39"/>
       <c r="CC3" s="39"/>
       <c r="CD3" s="39"/>
@@ -2081,18 +2071,22 @@
       <c r="BU4" s="39"/>
       <c r="BV4" s="39"/>
       <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
+      <c r="BX4" s="42"/>
       <c r="BY4" s="39"/>
       <c r="BZ4" s="39"/>
       <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
+      <c r="CB4" s="39">
+        <v>1</v>
+      </c>
       <c r="CC4" s="39"/>
       <c r="CD4" s="39"/>
       <c r="CE4" s="39"/>
       <c r="CF4" s="39"/>
       <c r="CG4" s="39"/>
       <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
+      <c r="CI4" s="39">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
